--- a/zencart/docs/zencart文件结构.xlsx
+++ b/zencart/docs/zencart文件结构.xlsx
@@ -989,6 +989,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3D31AA8A-42EB-4C32-8EE9-006139FFB10B}" type="pres">
       <dgm:prSet presAssocID="{8DDFE1C4-CD5D-486D-AD1B-1383430D2FA1}" presName="root1" presStyleCnt="0"/>
@@ -1016,10 +1023,24 @@
     <dgm:pt modelId="{F992FE20-C673-40E1-8073-A7B337DC6CF3}" type="pres">
       <dgm:prSet presAssocID="{5A45B7D7-B911-4339-9DAE-342E0BF1FF77}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2A0DCDDB-0D69-420F-B6E4-67013B5BF235}" type="pres">
       <dgm:prSet presAssocID="{5A45B7D7-B911-4339-9DAE-342E0BF1FF77}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DA1AF617-4FA4-4FBA-A05A-99B3A8DCA2B4}" type="pres">
       <dgm:prSet presAssocID="{47AA657C-B41C-453B-AB55-837F9FEF4B12}" presName="root2" presStyleCnt="0"/>
@@ -1047,10 +1068,24 @@
     <dgm:pt modelId="{EEC07DE6-CA93-4DB3-9E4D-C0243AC26D24}" type="pres">
       <dgm:prSet presAssocID="{D18F8F84-36CD-4154-97AB-F656A78EEC86}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{BC874A8C-2D0D-46A6-99E2-6E8D4668B032}" type="pres">
       <dgm:prSet presAssocID="{D18F8F84-36CD-4154-97AB-F656A78EEC86}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9D24F4E7-C24C-49FE-BC57-CE09A7309931}" type="pres">
       <dgm:prSet presAssocID="{DC88B43A-C85B-440C-9991-9280368AB6B6}" presName="root2" presStyleCnt="0"/>
@@ -1078,10 +1113,24 @@
     <dgm:pt modelId="{45AE1AD0-8111-4910-B798-0B3390676D69}" type="pres">
       <dgm:prSet presAssocID="{EF14A862-8986-435D-B36A-B1D13CE3B487}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1CCB8E49-122D-4C32-8BE9-C60B4648CD5C}" type="pres">
       <dgm:prSet presAssocID="{EF14A862-8986-435D-B36A-B1D13CE3B487}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4AFDB82B-2AB3-4100-94E8-D012E6C45207}" type="pres">
       <dgm:prSet presAssocID="{E47FED4A-1818-4422-B6E9-081A50F9A0E8}" presName="root2" presStyleCnt="0"/>
@@ -1094,6 +1143,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5EF4564E-A376-4F98-8C33-67F6A21BD649}" type="pres">
       <dgm:prSet presAssocID="{E47FED4A-1818-4422-B6E9-081A50F9A0E8}" presName="level3hierChild" presStyleCnt="0"/>
@@ -1101,21 +1157,21 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{CF659DEA-148B-420E-A104-6FC4C69A7C9C}" type="presOf" srcId="{8DDFE1C4-CD5D-486D-AD1B-1383430D2FA1}" destId="{0FC490E1-B2B2-40A6-8621-986A0A494767}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{32C752F9-8AE6-4BDA-AEC8-B6DEF212C0EB}" type="presOf" srcId="{003EC589-F357-421E-B14E-BD6324378DF9}" destId="{E9D195BF-1018-43B2-96B5-6ACED8F0C16B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D4956368-B1BC-4F0A-BDD3-2DCFB6DE26CD}" type="presOf" srcId="{D18F8F84-36CD-4154-97AB-F656A78EEC86}" destId="{BC874A8C-2D0D-46A6-99E2-6E8D4668B032}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CE520F49-FE4E-48C2-AE49-A6F0A06A6EA6}" type="presOf" srcId="{EF14A862-8986-435D-B36A-B1D13CE3B487}" destId="{1CCB8E49-122D-4C32-8BE9-C60B4648CD5C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0B377701-2551-45F5-B852-358556DEF21E}" type="presOf" srcId="{5A45B7D7-B911-4339-9DAE-342E0BF1FF77}" destId="{F992FE20-C673-40E1-8073-A7B337DC6CF3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{AB52C7AD-AC4A-464E-8B84-FFC6C815C832}" srcId="{8DDFE1C4-CD5D-486D-AD1B-1383430D2FA1}" destId="{47AA657C-B41C-453B-AB55-837F9FEF4B12}" srcOrd="0" destOrd="0" parTransId="{5A45B7D7-B911-4339-9DAE-342E0BF1FF77}" sibTransId="{45604ED9-516C-46AB-A827-577FDB2031A9}"/>
+    <dgm:cxn modelId="{9DF599B6-5857-4965-B781-881FF0C34642}" srcId="{8DDFE1C4-CD5D-486D-AD1B-1383430D2FA1}" destId="{E47FED4A-1818-4422-B6E9-081A50F9A0E8}" srcOrd="1" destOrd="0" parTransId="{EF14A862-8986-435D-B36A-B1D13CE3B487}" sibTransId="{B5BC2A34-347C-4E9D-9C16-F906AD3664A0}"/>
     <dgm:cxn modelId="{2EF7125B-97D1-421F-BE4C-CDA6217E1C72}" srcId="{47AA657C-B41C-453B-AB55-837F9FEF4B12}" destId="{DC88B43A-C85B-440C-9991-9280368AB6B6}" srcOrd="0" destOrd="0" parTransId="{D18F8F84-36CD-4154-97AB-F656A78EEC86}" sibTransId="{FB04A9CA-D2E3-413C-BCB0-5E89F8F461EA}"/>
-    <dgm:cxn modelId="{04129853-D08D-417E-AE1B-A270297E8C65}" srcId="{003EC589-F357-421E-B14E-BD6324378DF9}" destId="{8DDFE1C4-CD5D-486D-AD1B-1383430D2FA1}" srcOrd="0" destOrd="0" parTransId="{44D13549-EBA8-4B24-B2CA-49FBEFF33AEF}" sibTransId="{FD134F3A-9E5F-405D-A6B9-6DB81DC7EE06}"/>
     <dgm:cxn modelId="{1DB01F60-A386-4420-9D8B-654A015F348C}" type="presOf" srcId="{E47FED4A-1818-4422-B6E9-081A50F9A0E8}" destId="{91114E85-6AD4-4355-96CD-7F7EA2094AC0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{BB661024-3DE9-414B-97CA-DA993D182B15}" type="presOf" srcId="{47AA657C-B41C-453B-AB55-837F9FEF4B12}" destId="{270B5169-6063-44B5-9320-00C4C0A818EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{62F77471-E6BA-4AFD-8A78-FCD41F547CF3}" type="presOf" srcId="{DC88B43A-C85B-440C-9991-9280368AB6B6}" destId="{AE87E13B-05B4-465C-9F3E-FF91927810F6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0B377701-2551-45F5-B852-358556DEF21E}" type="presOf" srcId="{5A45B7D7-B911-4339-9DAE-342E0BF1FF77}" destId="{F992FE20-C673-40E1-8073-A7B337DC6CF3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{32C752F9-8AE6-4BDA-AEC8-B6DEF212C0EB}" type="presOf" srcId="{003EC589-F357-421E-B14E-BD6324378DF9}" destId="{E9D195BF-1018-43B2-96B5-6ACED8F0C16B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{91D2163E-F09A-453A-93F4-CFCF5C4B3503}" type="presOf" srcId="{D18F8F84-36CD-4154-97AB-F656A78EEC86}" destId="{EEC07DE6-CA93-4DB3-9E4D-C0243AC26D24}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{04129853-D08D-417E-AE1B-A270297E8C65}" srcId="{003EC589-F357-421E-B14E-BD6324378DF9}" destId="{8DDFE1C4-CD5D-486D-AD1B-1383430D2FA1}" srcOrd="0" destOrd="0" parTransId="{44D13549-EBA8-4B24-B2CA-49FBEFF33AEF}" sibTransId="{FD134F3A-9E5F-405D-A6B9-6DB81DC7EE06}"/>
     <dgm:cxn modelId="{BF51B68D-D3F2-4DB1-A0A7-C050DDBC6ADF}" type="presOf" srcId="{5A45B7D7-B911-4339-9DAE-342E0BF1FF77}" destId="{2A0DCDDB-0D69-420F-B6E4-67013B5BF235}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B3D11399-D6CF-4EF4-9F89-DC2A34A30F3B}" type="presOf" srcId="{EF14A862-8986-435D-B36A-B1D13CE3B487}" destId="{45AE1AD0-8111-4910-B798-0B3390676D69}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{CF659DEA-148B-420E-A104-6FC4C69A7C9C}" type="presOf" srcId="{8DDFE1C4-CD5D-486D-AD1B-1383430D2FA1}" destId="{0FC490E1-B2B2-40A6-8621-986A0A494767}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{9DF599B6-5857-4965-B781-881FF0C34642}" srcId="{8DDFE1C4-CD5D-486D-AD1B-1383430D2FA1}" destId="{E47FED4A-1818-4422-B6E9-081A50F9A0E8}" srcOrd="1" destOrd="0" parTransId="{EF14A862-8986-435D-B36A-B1D13CE3B487}" sibTransId="{B5BC2A34-347C-4E9D-9C16-F906AD3664A0}"/>
-    <dgm:cxn modelId="{CE520F49-FE4E-48C2-AE49-A6F0A06A6EA6}" type="presOf" srcId="{EF14A862-8986-435D-B36A-B1D13CE3B487}" destId="{1CCB8E49-122D-4C32-8BE9-C60B4648CD5C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{D4956368-B1BC-4F0A-BDD3-2DCFB6DE26CD}" type="presOf" srcId="{D18F8F84-36CD-4154-97AB-F656A78EEC86}" destId="{BC874A8C-2D0D-46A6-99E2-6E8D4668B032}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{91D2163E-F09A-453A-93F4-CFCF5C4B3503}" type="presOf" srcId="{D18F8F84-36CD-4154-97AB-F656A78EEC86}" destId="{EEC07DE6-CA93-4DB3-9E4D-C0243AC26D24}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{62F77471-E6BA-4AFD-8A78-FCD41F547CF3}" type="presOf" srcId="{DC88B43A-C85B-440C-9991-9280368AB6B6}" destId="{AE87E13B-05B4-465C-9F3E-FF91927810F6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C4207126-9ACE-41F8-A18B-EA43B169D891}" type="presParOf" srcId="{E9D195BF-1018-43B2-96B5-6ACED8F0C16B}" destId="{3D31AA8A-42EB-4C32-8EE9-006139FFB10B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{172486FC-C552-4846-945D-C35445C8BF1C}" type="presParOf" srcId="{3D31AA8A-42EB-4C32-8EE9-006139FFB10B}" destId="{0FC490E1-B2B2-40A6-8621-986A0A494767}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{413D121A-FB22-4C8C-81AA-91DD5DE848C3}" type="presParOf" srcId="{3D31AA8A-42EB-4C32-8EE9-006139FFB10B}" destId="{0E5326D0-55F6-42A7-8FEC-7334826C81B6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -3389,7 +3445,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
